--- a/jour38.xlsx
+++ b/jour38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Brahimi', 'Beka', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Bamba', 'Masson', 'Alioui']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Rodon', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Kipembe', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Blas', 'Blas']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Yoro', 'Fonte', 'Andre']</t>
-  </si>
-  <si>
-    <t>['Desler', 'Dallinga', 'Ratao']</t>
+    <t>['Ripart', 'Salmier', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'ChaÃ¯bi', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Kroupi', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Massolin', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Cherki', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Wooh']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Danois', 'Da_Costa', 'Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Gradit']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Kabore', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Rajot', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Magnetti', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Chavalerin']</t>
+    <t>['Sanches', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Pepe']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Del_Castillo', 'Le_Douaron', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Vidal']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Mollet', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'David', 'Burlet', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Valencia']</t>
   </si>
 </sst>
 </file>
@@ -552,22 +558,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -575,25 +581,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -610,22 +616,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -633,25 +639,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -662,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,22 +703,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -720,28 +726,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -749,28 +755,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,28 +784,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -807,25 +813,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>2</v>

--- a/jour38.xlsx
+++ b/jour38.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ripart', 'Salmier', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'ChaÃ¯bi', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Kroupi', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Massolin', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Cherki', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Wooh']</t>
+    <t>['Gigot']</t>
+  </si>
+  <si>
+    <t>['Odobert']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Gusto', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Spierings']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Laporte', 'Pelon']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Delort']</t>
+  </si>
+  <si>
+    <t>['Maouassa']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Doumbia', 'Capelle']</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lorient</t>
+    <t>Lille</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Pepe']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Del_Castillo', 'Le_Douaron', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Vidal']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Pallois', 'Mollet', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'David', 'Burlet', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Valencia']</t>
+    <t>['H.Diallo', 'Perrin', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Flips']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Sibide']</t>
+  </si>
+  <si>
+    <t>['Yoro']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Laborde']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>2</v>

--- a/jour38.xlsx
+++ b/jour38.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,19 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Gigot']</t>
-  </si>
-  <si>
-    <t>['Odobert']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Gusto', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Spierings']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Laporte', 'Pelon']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Tavares', 'Chardonnet', 'Brassier', 'Duverne']</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Delort']</t>
-  </si>
-  <si>
-    <t>['Maouassa']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Doumbia', 'Capelle']</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Perrin', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Messi']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Flips']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Sibide']</t>
-  </si>
-  <si>
-    <t>['Yoro']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Laborde']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +444,46 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
+      <c r="K2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
